--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39953,7 +39953,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>10.56116</v>
+        <v>10.60456</v>
       </c>
     </row>
     <row r="4">
@@ -39995,10 +39995,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.00066</v>
+        <v>0.00068</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.04087</v>
+        <v>0.04216</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0</v>
@@ -40011,13 +40011,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.35742</v>
+        <v>0.35714</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>22.00704</v>
+        <v>21.98974</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>219.16093</v>
+        <v>225.42267</v>
       </c>
     </row>
     <row r="8">
